--- a/image/observationdefinition.xlsx
+++ b/image/observationdefinition.xlsx
@@ -984,44 +984,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.7421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.1015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="54.36328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="82.5625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="83.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/observationdefinition.xlsx
+++ b/image/observationdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="398">
   <si>
     <t>Path</t>
   </si>
@@ -340,6 +340,327 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>ObservationDefinition.url</t>
+  </si>
+  <si>
+    <t>Logical canonical URL to reference this ObservationDefinition (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URL that is used to identify this ObservationDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this ObservationDefinition is (or will be) published. The URL SHOULD include the major version of the ObservationDefinition. For more information see Technical and Business Versions.</t>
+  </si>
+  <si>
+    <t>Can be a urn:uuid: or a urn:oid:, but real http: addresses are preferred. This is the URI that will be used when making canonical references to this resource.</t>
+  </si>
+  <si>
+    <t>Allows the ObservationDefinition to be referenced by a single globally unique identifier.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier of the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this ObservationDefinition. by the performer and/or other systems. These identifiers remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier. It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.</t>
+  </si>
+  <si>
+    <t>Allows identification of the ObservationDefinition as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Business version of the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the ObservationDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the ObservationDefinition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions are orderable.</t>
+  </si>
+  <si>
+    <t>There may be multiple different instances of a ObservationDefinition that have the same identifier but different versions.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.title</t>
+  </si>
+  <si>
+    <t>Name for this ObservationDefinition (Human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.derivedFromCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ObservationDefinition)
+</t>
+  </si>
+  <si>
+    <t>Based on FHIR definition of another observation</t>
+  </si>
+  <si>
+    <t>The canonical URL pointing to another FHIR-defined ObservationDefinition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.derivedFromUri</t>
+  </si>
+  <si>
+    <t>Based on external definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined observation definition, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Observation definitions may be refinements of other definitions.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>A nominal state-transition diagram can be found in the [[definition.html#statemachine | Definition pattern]] documentation
+Unknown does not represent "other" - one of the defined statuses must apply. Unknown is used when the authoring system is not sure what the current status is.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the state of an ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.1.0</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If for testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A flag to indicate that this ObservationDefinition is authored for testing purposes (or education/evaluation/marketing), and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Allows filtering of ObservationDefinition that are appropriate for use vs. not.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.subject[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Group)</t>
+  </si>
+  <si>
+    <t>Type of subject for the defined observation</t>
+  </si>
+  <si>
+    <t>A code or group definition that describes the intended subject of Observation instances conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Examples: person, animal, device, air, surface ….</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date status first applied</t>
+  </si>
+  <si>
+    <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>The name of the individual or organization that published the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the ObservationDefinition. May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Usually an organization, but may be an individual. The publisher (or steward) of the ObservationDefinition is the organization or individual primarily responsible for the maintenance and upkeep of the ObservationDefinition. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the ObservationDefinition. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the ObservationDefinition from the consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the ObservationDefinition was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the module as conveyed in the text field of the resource itself. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>Content intends to support these contexts</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of observation definitions.</t>
+  </si>
+  <si>
+    <t>When multiple usageContexts are specified, there is no expectation for whether all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for this ObservationDefinition (if applicable)</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the ObservationDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for country, country subdivision and region for indicating where a resource is intended to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.purpose</t>
+  </si>
+  <si>
+    <t>Why this ObservationDefinition is defined</t>
+  </si>
+  <si>
+    <t>Explains why this ObservationDefinition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the ObservationDefinition. Rather it is for traceability of ''why'' the resource is either needed or ''why'' it is defined as it is. This may be used to point to source materials or specifications that drove the structure of this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>Copyright statement relating to the ObservationDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Consumers of the ObservationDefinition must be able to determine any legal restrictions on the use of the artifact and/or its content.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When ObservationDefinition was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The date may be more recent than the approval date because of minor changes / editorial corrections.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Last review date for the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this is usually after the approval date.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The effective date range for the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The period during which the ObservationDefinition content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for an ObservationDefinition determines when the content is applicable for usage and is independent of publication and review dates. For example, an observation intended to be used for the year 2020 would be published in 2019.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.performerType</t>
+  </si>
+  <si>
+    <t>Desired kind of performer for such kind of observation</t>
+  </si>
+  <si>
+    <t>The type of individual/organization/device that is expected to act upon instances of this definition.</t>
+  </si>
+  <si>
     <t>ObservationDefinition.category</t>
   </si>
   <si>
@@ -347,10 +668,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Category of observation</t>
   </si>
   <si>
@@ -385,13 +702,10 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>Type of observation</t>
   </si>
   <si>
     <t>Describes what will be observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -410,94 +724,125 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>ObservationDefinition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>ObservationDefinition.permittedDataType</t>
+  </si>
+  <si>
+    <t>Quantity | CodeableConcept | string | boolean | integer | Range | Ratio | SampledData | time | dateTime | Period</t>
+  </si>
+  <si>
+    <t>The data types allowed for the value element of the instance observations conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>Permitted data type for observation value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/permitted-data-type|4.1.0</t>
+  </si>
+  <si>
+    <t>OM1-3</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.multipleResultsAllowed</t>
+  </si>
+  <si>
+    <t>Multiple results allowed</t>
+  </si>
+  <si>
+    <t>Multiple results allowed for observations conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>An example of observation allowing multiple results is "bacteria identified by culture". Conversely, the measurement of a potassium level allows a single result.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.bodySite</t>
+  </si>
+  <si>
+    <t>Body part to be observed</t>
+  </si>
+  <si>
+    <t>The site on the subject's body where the  observation is to be made.</t>
+  </si>
+  <si>
+    <t>Only used if the defined observation is to be made directly on a body part and if this body part is not implied by code found in ObservationDefinition.code. Not used for in vitro diagnostic observations. 
+Example: 14975008 |Forearm structure|.</t>
+  </si>
+  <si>
+    <t>SNOMED CT body structures.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.method</t>
+  </si>
+  <si>
+    <t>Method used to produce the observation</t>
+  </si>
+  <si>
+    <t>The method or technique used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in observation code
+Example: 702659008 |Automated count technique|.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>OM1-14</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(SpecimenDefinition)
 </t>
   </si>
   <si>
-    <t>Business identifier for this ObservationDefinition instance</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this ObservationDefinition artifact.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.permittedDataType</t>
-  </si>
-  <si>
-    <t>Quantity | CodeableConcept | string | boolean | integer | Range | Ratio | SampledData | time | dateTime | Period</t>
-  </si>
-  <si>
-    <t>The data types allowed for the value element of the instance observations conforming to this ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Permitted data type for observation value.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/permitted-data-type|4.1.0</t>
-  </si>
-  <si>
-    <t>OM1-3</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.multipleResultsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>Kind of specimen used by this type of observation</t>
+  </si>
+  <si>
+    <t>The kind of specimen that this type of observation is produced on.</t>
+  </si>
+  <si>
+    <t>Only used for in vitro observations.</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
-    <t>Multiple results allowed</t>
-  </si>
-  <si>
-    <t>Multiple results allowed for observations conforming to this ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>An example of observation allowing multiple results is "bacteria identified by culture". Conversely, the measurement of a potassium level allows a single result.</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.method</t>
-  </si>
-  <si>
-    <t>Method used to produce the observation</t>
-  </si>
-  <si>
-    <t>The method or technique used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in observation code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>OM1-14</t>
-  </si>
-  <si>
-    <t>methodCode</t>
+    <t>Measurement device</t>
+  </si>
+  <si>
+    <t>The measurement device used to produce observations of this type.</t>
   </si>
   <si>
     <t>ObservationDefinition.preferredReportName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Preferred report name</t>
@@ -579,9 +924,6 @@
     <t>Customary unit used to report quantitative results of observations conforming to this ObservationDefinition.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes identifying units of measure.</t>
   </si>
   <si>
@@ -842,6 +1184,73 @@
   </si>
   <si>
     <t>OM3-6</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.hasMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ObservationDefinition|Questionnaire)
+</t>
+  </si>
+  <si>
+    <t>Definitions of related resources belonging to this kind of observation group</t>
+  </si>
+  <si>
+    <t>This ObservationDefinition defines a group  observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component</t>
+  </si>
+  <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations, expressed as separate code value pairs.</t>
+  </si>
+  <si>
+    <t>Component observations share the same attributes as the primary observation and are always treated as a part of it (they are not separable).</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.id</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.extension</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.code</t>
+  </si>
+  <si>
+    <t>Describes what will be observed.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.permittedDataType</t>
+  </si>
+  <si>
+    <t>The data types allowed for the value element of the instance of this component observations.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.quantitativeDetails</t>
+  </si>
+  <si>
+    <t>Quantitative details</t>
+  </si>
+  <si>
+    <t>The quantitative details specified.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.qualifiedInterval</t>
+  </si>
+  <si>
+    <t>Qualified interval</t>
+  </si>
+  <si>
+    <t>The qualified interval specified.</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1007,7 +1416,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.25390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="94.78125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.29296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2118,14 +2527,14 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2137,19 +2546,19 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2174,13 +2583,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2204,7 +2613,7 @@
         <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
@@ -2216,23 +2625,23 @@
         <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>49</v>
@@ -2247,17 +2656,19 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2282,13 +2693,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2306,10 +2717,10 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>49</v>
@@ -2321,18 +2732,18 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2343,7 +2754,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
@@ -2355,15 +2766,17 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2412,13 +2825,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2438,7 +2851,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2449,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2458,16 +2871,16 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2482,7 +2895,7 @@
         <v>39</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>39</v>
@@ -2494,13 +2907,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2518,13 +2931,13 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
@@ -2533,7 +2946,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2544,7 +2957,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2555,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2564,20 +2977,18 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2590,7 +3001,7 @@
         <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>39</v>
@@ -2626,13 +3037,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2652,7 +3063,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2663,7 +3074,7 @@
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2672,22 +3083,20 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2712,13 +3121,13 @@
         <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -2736,13 +3145,13 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -2751,10 +3160,10 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -2762,7 +3171,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2770,7 +3179,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>49</v>
@@ -2779,21 +3188,23 @@
         <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2818,13 +3229,13 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -2842,10 +3253,10 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>49</v>
@@ -2857,7 +3268,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2868,7 +3279,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2885,21 +3296,23 @@
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -2948,7 +3361,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2960,10 +3373,10 @@
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -2974,7 +3387,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2994,18 +3407,20 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3054,7 +3469,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3072,7 +3487,7 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3080,18 +3495,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3100,20 +3515,18 @@
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3162,13 +3575,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3180,7 +3593,7 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3188,42 +3601,40 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3272,13 +3683,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3290,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3298,7 +3709,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3309,7 +3720,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3318,18 +3729,20 @@
         <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3354,13 +3767,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3378,13 +3791,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3393,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3404,7 +3817,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3427,15 +3840,17 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3460,13 +3875,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3484,7 +3899,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3499,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3510,7 +3925,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3521,7 +3936,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3533,16 +3948,20 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3590,13 +4009,13 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3605,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3616,7 +4035,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3627,7 +4046,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3636,16 +4055,16 @@
         <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3672,13 +4091,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -3696,13 +4115,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3711,7 +4130,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3722,7 +4141,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3733,7 +4152,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3745,15 +4164,17 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3802,22 +4223,22 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3828,11 +4249,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3851,16 +4272,18 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3908,7 +4331,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3926,7 +4349,7 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -3934,18 +4357,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -3957,16 +4380,16 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4016,13 +4439,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -4034,7 +4457,7 @@
         <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4042,43 +4465,41 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4126,13 +4547,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4144,7 +4565,7 @@
         <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4152,7 +4573,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4172,18 +4593,20 @@
         <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4196,7 +4619,7 @@
         <v>39</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>39</v>
@@ -4208,13 +4631,13 @@
         <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4232,7 +4655,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4247,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4258,7 +4681,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4278,21 +4701,19 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4340,7 +4761,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4776,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4366,18 +4787,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4386,19 +4807,23 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4422,13 +4847,13 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4446,13 +4871,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4461,29 +4886,29 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4492,20 +4917,18 @@
         <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -4530,13 +4953,13 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4554,33 +4977,33 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>39</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4591,7 +5014,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4606,10 +5029,10 @@
         <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4624,7 +5047,7 @@
         <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>39</v>
@@ -4636,13 +5059,13 @@
         <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4660,13 +5083,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4675,7 +5098,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4686,7 +5109,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4709,16 +5132,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4732,7 +5155,7 @@
         <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>39</v>
@@ -4768,7 +5191,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4783,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4794,7 +5217,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4817,15 +5240,17 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -4850,13 +5275,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4874,7 +5299,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4889,10 +5314,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -4900,7 +5325,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4923,16 +5348,20 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -4956,13 +5385,13 @@
         <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -4980,7 +5409,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4995,10 +5424,10 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5006,7 +5435,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5029,15 +5458,17 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5086,7 +5517,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5101,10 +5532,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5112,7 +5543,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5135,13 +5566,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5192,7 +5623,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5207,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5218,7 +5649,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5241,13 +5672,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5298,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5313,7 +5744,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5324,7 +5755,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5347,13 +5778,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5404,7 +5835,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5416,15 +5847,3433 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>39</v>
       </c>
     </row>

--- a/image/observationdefinition.xlsx
+++ b/image/observationdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="398">
   <si>
     <t>Path</t>
   </si>
@@ -340,6 +340,327 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>ObservationDefinition.url</t>
+  </si>
+  <si>
+    <t>Logical canonical URL to reference this ObservationDefinition (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URL that is used to identify this ObservationDefinition when it is referenced in a specification, model, design or an instance. This SHALL be a URL, SHOULD be globally unique, and SHOULD be an address at which this ObservationDefinition is (or will be) published. The URL SHOULD include the major version of the ObservationDefinition. For more information see Technical and Business Versions.</t>
+  </si>
+  <si>
+    <t>Can be a urn:uuid: or a urn:oid:, but real http: addresses are preferred. This is the URI that will be used when making canonical references to this resource.</t>
+  </si>
+  <si>
+    <t>Allows the ObservationDefinition to be referenced by a single globally unique identifier.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier of the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this ObservationDefinition. by the performer and/or other systems. These identifiers remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier. It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.</t>
+  </si>
+  <si>
+    <t>Allows identification of the ObservationDefinition as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Business version of the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the ObservationDefinition when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the ObservationDefinition author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions are orderable.</t>
+  </si>
+  <si>
+    <t>There may be multiple different instances of a ObservationDefinition that have the same identifier but different versions.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.title</t>
+  </si>
+  <si>
+    <t>Name for this ObservationDefinition (Human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.derivedFromCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ObservationDefinition)
+</t>
+  </si>
+  <si>
+    <t>Based on FHIR definition of another observation</t>
+  </si>
+  <si>
+    <t>The canonical URL pointing to another FHIR-defined ObservationDefinition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.derivedFromUri</t>
+  </si>
+  <si>
+    <t>Based on external definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally-defined observation definition, guideline or other definition that is adhered to in whole or in part by this definition.</t>
+  </si>
+  <si>
+    <t>Observation definitions may be refinements of other definitions.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>A nominal state-transition diagram can be found in the [[definition.html#statemachine | Definition pattern]] documentation
+Unknown does not represent "other" - one of the defined statuses must apply. Unknown is used when the authoring system is not sure what the current status is.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the state of an ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.1.0</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If for testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A flag to indicate that this ObservationDefinition is authored for testing purposes (or education/evaluation/marketing), and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Allows filtering of ObservationDefinition that are appropriate for use vs. not.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.subject[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Group)</t>
+  </si>
+  <si>
+    <t>Type of subject for the defined observation</t>
+  </si>
+  <si>
+    <t>A code or group definition that describes the intended subject of Observation instances conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Examples: person, animal, device, air, surface ….</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date status first applied</t>
+  </si>
+  <si>
+    <t>For draft definitions, indicates the date of initial creation. For active definitions, represents the date of activation. For withdrawn definitions, indicates the date of withdrawal.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>The name of the individual or organization that published the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the ObservationDefinition. May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Usually an organization, but may be an individual. The publisher (or steward) of the ObservationDefinition is the organization or individual primarily responsible for the maintenance and upkeep of the ObservationDefinition. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the ObservationDefinition. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the ObservationDefinition from the consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the ObservationDefinition was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the module as conveyed in the text field of the resource itself. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>Content intends to support these contexts</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These terms may be used to assist with indexing and searching of observation definitions.</t>
+  </si>
+  <si>
+    <t>When multiple usageContexts are specified, there is no expectation for whether all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for this ObservationDefinition (if applicable)</t>
+  </si>
+  <si>
+    <t>A jurisdiction in which the ObservationDefinition is intended to be used.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for country, country subdivision and region for indicating where a resource is intended to be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.purpose</t>
+  </si>
+  <si>
+    <t>Why this ObservationDefinition is defined</t>
+  </si>
+  <si>
+    <t>Explains why this ObservationDefinition is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the ObservationDefinition. Rather it is for traceability of ''why'' the resource is either needed or ''why'' it is defined as it is. This may be used to point to source materials or specifications that drove the structure of this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>Copyright statement relating to the ObservationDefinition and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>Consumers of the ObservationDefinition must be able to determine any legal restrictions on the use of the artifact and/or its content.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When ObservationDefinition was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The date may be more recent than the approval date because of minor changes / editorial corrections.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>Last review date for the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The date on which the asset content was last reviewed. Review happens periodically after that, but doesn't change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this is usually after the approval date.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The effective date range for the ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The period during which the ObservationDefinition content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for an ObservationDefinition determines when the content is applicable for usage and is independent of publication and review dates. For example, an observation intended to be used for the year 2020 would be published in 2019.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.performerType</t>
+  </si>
+  <si>
+    <t>Desired kind of performer for such kind of observation</t>
+  </si>
+  <si>
+    <t>The type of individual/organization/device that is expected to act upon instances of this definition.</t>
+  </si>
+  <si>
     <t>ObservationDefinition.category</t>
   </si>
   <si>
@@ -347,10 +668,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Category of observation</t>
   </si>
   <si>
@@ -385,13 +702,10 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>Type of observation</t>
   </si>
   <si>
     <t>Describes what will be observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
@@ -410,94 +724,125 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>ObservationDefinition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>ObservationDefinition.permittedDataType</t>
+  </si>
+  <si>
+    <t>Quantity | CodeableConcept | string | boolean | integer | Range | Ratio | SampledData | time | dateTime | Period</t>
+  </si>
+  <si>
+    <t>The data types allowed for the value element of the instance observations conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>Permitted data type for observation value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/permitted-data-type|4.1.0</t>
+  </si>
+  <si>
+    <t>OM1-3</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.multipleResultsAllowed</t>
+  </si>
+  <si>
+    <t>Multiple results allowed</t>
+  </si>
+  <si>
+    <t>Multiple results allowed for observations conforming to this ObservationDefinition.</t>
+  </si>
+  <si>
+    <t>An example of observation allowing multiple results is "bacteria identified by culture". Conversely, the measurement of a potassium level allows a single result.</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.bodySite</t>
+  </si>
+  <si>
+    <t>Body part to be observed</t>
+  </si>
+  <si>
+    <t>The site on the subject's body where the  observation is to be made.</t>
+  </si>
+  <si>
+    <t>Only used if the defined observation is to be made directly on a body part and if this body part is not implied by code found in ObservationDefinition.code. Not used for in vitro diagnostic observations. 
+Example: 14975008 |Forearm structure|.</t>
+  </si>
+  <si>
+    <t>SNOMED CT body structures.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.method</t>
+  </si>
+  <si>
+    <t>Method used to produce the observation</t>
+  </si>
+  <si>
+    <t>The method or technique used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in observation code
+Example: 702659008 |Automated count technique|.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>OM1-14</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(SpecimenDefinition)
 </t>
   </si>
   <si>
-    <t>Business identifier for this ObservationDefinition instance</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this ObservationDefinition artifact.</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.permittedDataType</t>
-  </si>
-  <si>
-    <t>Quantity | CodeableConcept | string | boolean | integer | Range | Ratio | SampledData | time | dateTime | Period</t>
-  </si>
-  <si>
-    <t>The data types allowed for the value element of the instance observations conforming to this ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Permitted data type for observation value.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/permitted-data-type|4.1.0</t>
-  </si>
-  <si>
-    <t>OM1-3</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.multipleResultsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>Kind of specimen used by this type of observation</t>
+  </si>
+  <si>
+    <t>The kind of specimen that this type of observation is produced on.</t>
+  </si>
+  <si>
+    <t>Only used for in vitro observations.</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
-    <t>Multiple results allowed</t>
-  </si>
-  <si>
-    <t>Multiple results allowed for observations conforming to this ObservationDefinition.</t>
-  </si>
-  <si>
-    <t>An example of observation allowing multiple results is "bacteria identified by culture". Conversely, the measurement of a potassium level allows a single result.</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.method</t>
-  </si>
-  <si>
-    <t>Method used to produce the observation</t>
-  </si>
-  <si>
-    <t>The method or technique used to perform the observation.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in observation code.</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results.</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
-  </si>
-  <si>
-    <t>OM1-14</t>
-  </si>
-  <si>
-    <t>methodCode</t>
+    <t>Measurement device</t>
+  </si>
+  <si>
+    <t>The measurement device used to produce observations of this type.</t>
   </si>
   <si>
     <t>ObservationDefinition.preferredReportName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Preferred report name</t>
@@ -579,9 +924,6 @@
     <t>Customary unit used to report quantitative results of observations conforming to this ObservationDefinition.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes identifying units of measure.</t>
   </si>
   <si>
@@ -842,6 +1184,73 @@
   </si>
   <si>
     <t>OM3-6</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.hasMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ObservationDefinition|Questionnaire)
+</t>
+  </si>
+  <si>
+    <t>Definitions of related resources belonging to this kind of observation group</t>
+  </si>
+  <si>
+    <t>This ObservationDefinition defines a group  observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component</t>
+  </si>
+  <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations, expressed as separate code value pairs.</t>
+  </si>
+  <si>
+    <t>Component observations share the same attributes as the primary observation and are always treated as a part of it (they are not separable).</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.id</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.extension</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.code</t>
+  </si>
+  <si>
+    <t>Describes what will be observed.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.permittedDataType</t>
+  </si>
+  <si>
+    <t>The data types allowed for the value element of the instance of this component observations.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.quantitativeDetails</t>
+  </si>
+  <si>
+    <t>Quantitative details</t>
+  </si>
+  <si>
+    <t>The quantitative details specified.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition.component.qualifiedInterval</t>
+  </si>
+  <si>
+    <t>Qualified interval</t>
+  </si>
+  <si>
+    <t>The qualified interval specified.</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -984,44 +1393,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.7421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.1015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="94.78125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="54.36328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="82.5625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="83.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2118,14 +2527,14 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2137,19 +2546,19 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>39</v>
@@ -2174,13 +2583,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2204,7 +2613,7 @@
         <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
@@ -2216,23 +2625,23 @@
         <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>49</v>
@@ -2247,17 +2656,19 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>39</v>
@@ -2282,13 +2693,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2306,10 +2717,10 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>49</v>
@@ -2321,18 +2732,18 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2343,7 +2754,7 @@
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
@@ -2355,15 +2766,17 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2412,13 +2825,13 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
@@ -2438,7 +2851,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2449,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2458,16 +2871,16 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2482,7 +2895,7 @@
         <v>39</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>39</v>
@@ -2494,13 +2907,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2518,13 +2931,13 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
@@ -2533,7 +2946,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2544,7 +2957,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2555,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2564,20 +2977,18 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -2590,7 +3001,7 @@
         <v>39</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>39</v>
@@ -2626,13 +3037,13 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>39</v>
@@ -2652,7 +3063,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2663,7 +3074,7 @@
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2672,22 +3083,20 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -2712,13 +3121,13 @@
         <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -2736,13 +3145,13 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
@@ -2751,10 +3160,10 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -2762,7 +3171,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2770,7 +3179,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>49</v>
@@ -2779,21 +3188,23 @@
         <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2818,13 +3229,13 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -2842,10 +3253,10 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>49</v>
@@ -2857,7 +3268,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2868,7 +3279,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2885,21 +3296,23 @@
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -2948,7 +3361,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2960,10 +3373,10 @@
         <v>39</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -2974,7 +3387,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2994,18 +3407,20 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3054,7 +3469,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3072,7 +3487,7 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -3080,18 +3495,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3100,20 +3515,18 @@
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3162,13 +3575,13 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
@@ -3180,7 +3593,7 @@
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -3188,42 +3601,40 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3272,13 +3683,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3290,7 +3701,7 @@
         <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3298,7 +3709,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3309,7 +3720,7 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>39</v>
@@ -3318,18 +3729,20 @@
         <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3354,13 +3767,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3378,13 +3791,13 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
@@ -3393,7 +3806,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3404,7 +3817,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3427,15 +3840,17 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3460,13 +3875,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3484,7 +3899,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3499,7 +3914,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3510,7 +3925,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3521,7 +3936,7 @@
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
@@ -3533,16 +3948,20 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3590,13 +4009,13 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
@@ -3605,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3616,7 +4035,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3627,7 +4046,7 @@
         <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3636,16 +4055,16 @@
         <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3672,13 +4091,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -3696,13 +4115,13 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>39</v>
@@ -3711,7 +4130,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3722,7 +4141,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3733,7 +4152,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -3745,15 +4164,17 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3802,22 +4223,22 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3828,11 +4249,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3851,16 +4272,18 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3908,7 +4331,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3926,7 +4349,7 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -3934,18 +4357,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -3957,16 +4380,16 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4016,13 +4439,13 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>39</v>
@@ -4034,7 +4457,7 @@
         <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4042,43 +4465,41 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4126,13 +4547,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4144,7 +4565,7 @@
         <v>39</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4152,7 +4573,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4172,18 +4593,20 @@
         <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4196,7 +4619,7 @@
         <v>39</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>39</v>
@@ -4208,13 +4631,13 @@
         <v>39</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4232,7 +4655,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4247,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4258,7 +4681,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4278,21 +4701,19 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4340,7 +4761,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4355,7 +4776,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4366,18 +4787,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4386,19 +4807,23 @@
         <v>39</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4422,13 +4847,13 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4446,13 +4871,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4461,29 +4886,29 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>39</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4492,20 +4917,18 @@
         <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -4530,13 +4953,13 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4554,33 +4977,33 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>39</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4591,7 +5014,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
@@ -4606,10 +5029,10 @@
         <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4624,7 +5047,7 @@
         <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>39</v>
@@ -4636,13 +5059,13 @@
         <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -4660,13 +5083,13 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
@@ -4675,7 +5098,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -4686,7 +5109,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4709,16 +5132,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4732,7 +5155,7 @@
         <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>39</v>
@@ -4768,7 +5191,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4783,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>39</v>
@@ -4794,7 +5217,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4817,15 +5240,17 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -4850,13 +5275,13 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>39</v>
@@ -4874,7 +5299,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4889,10 +5314,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -4900,7 +5325,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4923,16 +5348,20 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
       </c>
@@ -4956,13 +5385,13 @@
         <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>39</v>
@@ -4980,7 +5409,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4995,10 +5424,10 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5006,7 +5435,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5029,15 +5458,17 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5086,7 +5517,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5101,10 +5532,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>254</v>
+        <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5112,7 +5543,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5135,13 +5566,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5192,7 +5623,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5207,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>258</v>
+        <v>39</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5218,7 +5649,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5241,13 +5672,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5298,7 +5729,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5313,7 +5744,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5324,7 +5755,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5347,13 +5778,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5404,7 +5835,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5416,15 +5847,3433 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>39</v>
       </c>
     </row>

--- a/image/observationdefinition.xlsx
+++ b/image/observationdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="397">
   <si>
     <t>Path</t>
   </si>
@@ -170,7 +170,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -375,10 +375,6 @@
   </si>
   <si>
     <t>ObservationDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the ObservationDefinition</t>
@@ -1393,44 +1389,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.4921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.78125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="83.65234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="82.5625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2766,16 +2762,16 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2851,7 +2847,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2874,13 +2870,13 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2931,7 +2927,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2980,13 +2976,13 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3037,7 +3033,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3063,7 +3059,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3089,14 +3085,14 @@
         <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3145,7 +3141,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3171,7 +3167,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3197,13 +3193,13 @@
         <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3229,14 +3225,14 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3253,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>49</v>
@@ -3279,7 +3275,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3302,16 +3298,16 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3361,7 +3357,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3387,7 +3383,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3410,16 +3406,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3469,7 +3465,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3495,7 +3491,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3518,13 +3514,13 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3575,7 +3571,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3601,7 +3597,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3624,17 +3620,17 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3683,7 +3679,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3709,7 +3705,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3732,16 +3728,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3791,7 +3787,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3817,7 +3813,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3840,16 +3836,16 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3899,7 +3895,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3925,7 +3921,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3948,19 +3944,19 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -4009,7 +4005,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -4035,7 +4031,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4058,13 +4054,13 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4091,14 +4087,14 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
       </c>
@@ -4115,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4141,7 +4137,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4164,16 +4160,16 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4223,7 +4219,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -4249,11 +4245,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4272,17 +4268,17 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4331,7 +4327,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4357,7 +4353,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4380,16 +4376,16 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4439,7 +4435,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4465,7 +4461,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4488,16 +4484,16 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4547,7 +4543,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4573,7 +4569,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4596,16 +4592,16 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4655,7 +4651,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4681,7 +4677,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4704,13 +4700,13 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4761,7 +4757,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4787,11 +4783,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4810,19 +4806,19 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4847,14 +4843,14 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4871,7 +4867,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4889,19 +4885,19 @@
         <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4920,13 +4916,13 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4953,57 +4949,57 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5029,10 +5025,10 @@
         <v>68</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5047,26 +5043,26 @@
         <v>39</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5098,7 +5094,7 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>39</v>
@@ -5109,7 +5105,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5132,16 +5128,16 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5155,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>39</v>
@@ -5191,7 +5187,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5217,7 +5213,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5240,16 +5236,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5275,49 +5271,49 @@
         <v>39</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5325,7 +5321,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5348,19 +5344,19 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5385,49 +5381,49 @@
         <v>39</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5435,7 +5431,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5458,16 +5454,16 @@
         <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5517,7 +5513,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5535,7 +5531,7 @@
         <v>39</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5543,7 +5539,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5566,13 +5562,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5623,7 +5619,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5649,7 +5645,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5672,13 +5668,13 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5729,7 +5725,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5744,7 +5740,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5755,7 +5751,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5778,13 +5774,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5835,7 +5831,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5847,10 +5843,10 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>39</v>
@@ -5861,7 +5857,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5884,13 +5880,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5941,25 +5937,25 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5967,7 +5963,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5996,7 +5992,7 @@
         <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>97</v>
@@ -6049,7 +6045,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6067,7 +6063,7 @@
         <v>39</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6075,11 +6071,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6101,10 +6097,10 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>97</v>
@@ -6159,7 +6155,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6185,7 +6181,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6208,13 +6204,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6241,46 +6237,46 @@
         <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6291,7 +6287,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6314,13 +6310,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6347,14 +6343,14 @@
         <v>39</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6386,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6397,7 +6393,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6420,13 +6416,13 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6477,7 +6473,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6492,7 +6488,7 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>39</v>
@@ -6503,7 +6499,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6526,13 +6522,13 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6583,7 +6579,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6598,7 +6594,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6609,7 +6605,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6632,13 +6628,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6689,7 +6685,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6701,10 +6697,10 @@
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -6715,7 +6711,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6738,13 +6734,13 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6795,25 +6791,25 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6821,7 +6817,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6850,7 +6846,7 @@
         <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>97</v>
@@ -6903,7 +6899,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6921,7 +6917,7 @@
         <v>39</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6929,11 +6925,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6955,10 +6951,10 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>97</v>
@@ -7013,7 +7009,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7039,7 +7035,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7065,10 +7061,10 @@
         <v>68</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7083,58 +7079,58 @@
         <v>39</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X53" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X53" t="s" s="2">
+      <c r="Y53" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -7145,7 +7141,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7168,17 +7164,17 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7227,7 +7223,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7242,7 +7238,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7253,7 +7249,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7276,13 +7272,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7309,46 +7305,46 @@
         <v>39</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7359,7 +7355,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7382,16 +7378,16 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7417,14 +7413,14 @@
         <v>39</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7441,7 +7437,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7456,7 +7452,7 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -7467,7 +7463,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7493,10 +7489,10 @@
         <v>68</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7511,58 +7507,58 @@
         <v>39</v>
       </c>
       <c r="S57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X57" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="T57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X57" t="s" s="2">
+      <c r="Y57" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>39</v>
@@ -7573,7 +7569,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7596,16 +7592,16 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7655,7 +7651,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7670,7 +7666,7 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>39</v>
@@ -7681,7 +7677,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7704,13 +7700,13 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7761,7 +7757,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7776,7 +7772,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>39</v>
@@ -7787,7 +7783,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7810,13 +7806,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7867,7 +7863,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7882,7 +7878,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>39</v>
@@ -7893,7 +7889,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7916,13 +7912,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7973,7 +7969,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7988,7 +7984,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -7999,7 +7995,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8022,13 +8018,13 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8079,7 +8075,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8094,7 +8090,7 @@
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>39</v>
@@ -8105,7 +8101,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8128,13 +8124,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8185,7 +8181,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8200,7 +8196,7 @@
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>39</v>
@@ -8211,7 +8207,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8234,13 +8230,13 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8291,7 +8287,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8306,7 +8302,7 @@
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>39</v>
@@ -8317,7 +8313,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8340,13 +8336,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8397,7 +8393,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8423,7 +8419,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8446,17 +8442,17 @@
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8505,7 +8501,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8517,13 +8513,13 @@
         <v>39</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8531,7 +8527,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8554,13 +8550,13 @@
         <v>39</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8611,25 +8607,25 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8637,7 +8633,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8666,7 +8662,7 @@
         <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>97</v>
@@ -8719,7 +8715,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8737,7 +8733,7 @@
         <v>39</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>39</v>
@@ -8745,11 +8741,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8771,10 +8767,10 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>97</v>
@@ -8829,7 +8825,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8855,7 +8851,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8878,13 +8874,13 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8911,14 +8907,14 @@
         <v>39</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z70" t="s" s="2">
         <v>39</v>
       </c>
@@ -8935,7 +8931,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>49</v>
@@ -8953,7 +8949,7 @@
         <v>39</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -8961,7 +8957,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8987,10 +8983,10 @@
         <v>68</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9005,26 +9001,26 @@
         <v>39</v>
       </c>
       <c r="S71" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X71" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="T71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="X71" t="s" s="2">
+      <c r="Y71" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9067,7 +9063,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9093,10 +9089,10 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9147,7 +9143,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9173,7 +9169,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9199,10 +9195,10 @@
         <v>39</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9253,7 +9249,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
